--- a/sample_data/bank_statement.xlsx
+++ b/sample_data/bank_statement.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6680,7 +6680,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7970,7 +7970,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8314,7 +8314,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -9475,7 +9475,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -9862,7 +9862,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -9991,7 +9991,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -10421,7 +10421,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -10464,7 +10464,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10894,7 +10894,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -11066,7 +11066,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -11238,7 +11238,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -11797,7 +11797,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11883,7 +11883,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -12442,7 +12442,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -12743,7 +12743,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -12958,7 +12958,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -13001,7 +13001,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -13044,7 +13044,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -13087,7 +13087,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -13130,7 +13130,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -13216,7 +13216,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -13388,7 +13388,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -13474,7 +13474,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -13560,7 +13560,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -13732,7 +13732,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -13904,7 +13904,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -14291,7 +14291,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -14635,7 +14635,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -14764,7 +14764,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -14850,7 +14850,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -15194,7 +15194,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -15280,7 +15280,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -15452,7 +15452,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -15710,7 +15710,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -15882,7 +15882,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -15925,7 +15925,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -16355,7 +16355,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -16398,7 +16398,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -16441,7 +16441,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -16527,7 +16527,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -16613,7 +16613,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -16656,7 +16656,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -17000,7 +17000,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -17172,7 +17172,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -17215,7 +17215,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -17258,7 +17258,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -17387,7 +17387,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -17559,7 +17559,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -17602,7 +17602,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -17645,7 +17645,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -17774,7 +17774,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -17903,7 +17903,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -17989,7 +17989,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -18075,7 +18075,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -18118,7 +18118,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -18247,7 +18247,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -18290,7 +18290,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -18333,7 +18333,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -18419,7 +18419,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -18462,7 +18462,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -18505,7 +18505,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -18591,7 +18591,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -18634,7 +18634,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -18677,7 +18677,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -18806,7 +18806,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -18892,7 +18892,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -19408,7 +19408,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -19451,7 +19451,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -19494,7 +19494,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -19537,7 +19537,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -19623,7 +19623,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -19666,7 +19666,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -19752,7 +19752,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -19795,7 +19795,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -19881,7 +19881,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -19967,7 +19967,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -20010,7 +20010,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -20096,7 +20096,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -20225,7 +20225,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -20311,7 +20311,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -20397,7 +20397,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -20483,7 +20483,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -20698,7 +20698,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -20784,7 +20784,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -20827,7 +20827,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -20913,7 +20913,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -21042,7 +21042,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -21085,7 +21085,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -21128,7 +21128,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -21343,7 +21343,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -21429,7 +21429,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -21472,7 +21472,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -21558,7 +21558,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -21687,7 +21687,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -21773,7 +21773,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -21902,7 +21902,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -21945,7 +21945,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -21988,7 +21988,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -22031,7 +22031,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -22117,7 +22117,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -22203,7 +22203,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -22246,7 +22246,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -22289,7 +22289,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -22332,7 +22332,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -22461,7 +22461,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -22590,7 +22590,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -22719,7 +22719,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -22762,7 +22762,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -22934,7 +22934,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -23020,7 +23020,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -23106,7 +23106,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -23149,7 +23149,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -23278,7 +23278,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -23321,7 +23321,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -23622,7 +23622,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -23708,7 +23708,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -23751,7 +23751,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -23794,7 +23794,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -23880,7 +23880,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -23966,7 +23966,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -24009,7 +24009,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -24052,7 +24052,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -24267,7 +24267,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -24439,7 +24439,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -24482,7 +24482,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -24525,7 +24525,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -24654,7 +24654,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -24740,7 +24740,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -24783,7 +24783,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -24869,7 +24869,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -24912,7 +24912,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -25084,7 +25084,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -25127,7 +25127,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -25170,7 +25170,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -25213,7 +25213,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -25299,7 +25299,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -25342,7 +25342,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -25385,7 +25385,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -25471,7 +25471,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -25514,7 +25514,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -25600,7 +25600,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -25643,7 +25643,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -25686,7 +25686,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -25729,7 +25729,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -25772,7 +25772,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -25815,7 +25815,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -25858,7 +25858,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -25944,7 +25944,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -25987,7 +25987,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -26073,7 +26073,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -26202,7 +26202,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -26245,7 +26245,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -26331,7 +26331,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -26374,7 +26374,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -26589,7 +26589,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -26718,7 +26718,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -26761,7 +26761,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -26804,7 +26804,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -26890,7 +26890,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -26933,7 +26933,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -27019,7 +27019,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -27148,7 +27148,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -27191,7 +27191,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -27277,7 +27277,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -27320,7 +27320,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -27363,7 +27363,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -27406,7 +27406,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -27449,7 +27449,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -27492,7 +27492,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -27664,7 +27664,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -27707,7 +27707,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -27750,7 +27750,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -27793,7 +27793,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -27836,7 +27836,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -27879,7 +27879,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -28051,7 +28051,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -28094,7 +28094,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -28180,7 +28180,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -28223,7 +28223,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -28309,7 +28309,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -28395,7 +28395,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -28438,7 +28438,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -28481,7 +28481,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -28524,7 +28524,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -28567,7 +28567,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -28610,7 +28610,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -28653,7 +28653,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -28739,7 +28739,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -28782,7 +28782,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -28911,7 +28911,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -28954,7 +28954,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -28997,7 +28997,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -29040,7 +29040,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -29083,7 +29083,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -29126,7 +29126,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -29169,7 +29169,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -29212,7 +29212,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -29255,7 +29255,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -29298,7 +29298,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -29341,7 +29341,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -29427,7 +29427,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -29470,7 +29470,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -29513,7 +29513,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -29556,7 +29556,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -29599,7 +29599,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -29642,7 +29642,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -29771,7 +29771,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -29814,7 +29814,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -29900,7 +29900,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -29986,7 +29986,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -30158,7 +30158,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -30201,7 +30201,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -30244,7 +30244,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -30373,7 +30373,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -30416,7 +30416,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -30459,7 +30459,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -30502,7 +30502,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -30545,7 +30545,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -30588,7 +30588,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -30631,7 +30631,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -30717,7 +30717,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -30760,7 +30760,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -30803,7 +30803,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -30889,7 +30889,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -30932,7 +30932,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -31061,7 +31061,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -31104,7 +31104,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -31233,7 +31233,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -31276,7 +31276,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -31448,7 +31448,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -31491,7 +31491,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -31534,7 +31534,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -31577,7 +31577,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -31620,7 +31620,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -31663,7 +31663,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -31706,7 +31706,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -31749,7 +31749,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -31792,7 +31792,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -31835,7 +31835,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -31878,7 +31878,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -31921,7 +31921,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -31964,7 +31964,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -32007,7 +32007,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -32050,7 +32050,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -32093,7 +32093,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -32136,7 +32136,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -32179,7 +32179,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -32351,7 +32351,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -32394,7 +32394,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -32437,7 +32437,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -32480,7 +32480,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -32523,7 +32523,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -32566,7 +32566,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -32609,7 +32609,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -32652,7 +32652,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -32738,7 +32738,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -32781,7 +32781,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -32824,7 +32824,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -32867,7 +32867,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -32910,7 +32910,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -32996,7 +32996,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -33039,7 +33039,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -33082,7 +33082,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -33125,7 +33125,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -33168,7 +33168,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -33254,7 +33254,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -33297,7 +33297,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -33340,7 +33340,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -33383,7 +33383,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -33426,7 +33426,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -33512,7 +33512,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -33555,7 +33555,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -33598,7 +33598,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -33684,7 +33684,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -33727,7 +33727,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -33856,7 +33856,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -33942,7 +33942,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -33985,7 +33985,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -34071,7 +34071,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -34114,7 +34114,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -34157,7 +34157,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -34200,7 +34200,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -34243,7 +34243,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -34286,7 +34286,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -34329,7 +34329,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -34458,7 +34458,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -34501,7 +34501,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -34544,7 +34544,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -34587,7 +34587,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -34630,7 +34630,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -34673,7 +34673,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -34716,7 +34716,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -34759,7 +34759,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -34802,7 +34802,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -34845,7 +34845,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -34888,7 +34888,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -34974,7 +34974,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -35017,7 +35017,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -35060,7 +35060,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -35146,7 +35146,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -35189,7 +35189,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -35275,7 +35275,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -35318,7 +35318,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -35361,7 +35361,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -35404,7 +35404,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -35533,7 +35533,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -35576,7 +35576,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -35662,7 +35662,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -35705,7 +35705,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -35748,7 +35748,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -35791,7 +35791,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -35834,7 +35834,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -35877,7 +35877,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -35920,7 +35920,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -35963,7 +35963,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -36006,7 +36006,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -36049,7 +36049,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -36092,7 +36092,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -36178,7 +36178,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -36221,7 +36221,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -36264,7 +36264,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -36307,7 +36307,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -36350,7 +36350,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -36393,7 +36393,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -36436,7 +36436,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -36479,7 +36479,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -36522,7 +36522,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -36565,7 +36565,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -36608,7 +36608,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -36651,7 +36651,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -36694,7 +36694,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -36737,7 +36737,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -36780,7 +36780,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -36823,7 +36823,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -36866,7 +36866,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -36909,7 +36909,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -37038,7 +37038,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -37081,7 +37081,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -37124,7 +37124,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -37167,7 +37167,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -37210,7 +37210,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -37253,7 +37253,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -37296,7 +37296,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -37339,7 +37339,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -37382,7 +37382,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -37425,7 +37425,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -37468,7 +37468,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -37511,7 +37511,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -37554,7 +37554,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -37597,7 +37597,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -37640,7 +37640,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -37683,7 +37683,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -37726,7 +37726,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -37769,7 +37769,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -37812,7 +37812,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -37855,7 +37855,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -37898,7 +37898,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -37941,7 +37941,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -37984,7 +37984,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -38027,7 +38027,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -38070,7 +38070,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -38113,7 +38113,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -38156,7 +38156,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -38199,7 +38199,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -38242,7 +38242,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -38285,7 +38285,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -38328,7 +38328,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -38371,7 +38371,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -38414,7 +38414,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -38457,7 +38457,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -38500,7 +38500,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -38543,7 +38543,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -38586,7 +38586,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -38629,7 +38629,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -38672,7 +38672,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -38715,7 +38715,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -38758,7 +38758,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -38801,7 +38801,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -38844,7 +38844,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -38887,7 +38887,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -38930,7 +38930,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -38973,7 +38973,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -39016,7 +39016,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -39102,7 +39102,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -39145,7 +39145,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -39188,7 +39188,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -39231,7 +39231,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -39274,7 +39274,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -39317,7 +39317,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2025-06-27</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -39360,7 +39360,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -39403,7 +39403,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -39446,7 +39446,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -39489,7 +39489,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -39532,7 +39532,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -39575,7 +39575,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -39618,7 +39618,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -39661,7 +39661,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -39704,7 +39704,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -39747,7 +39747,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -39790,7 +39790,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -39833,7 +39833,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -39919,7 +39919,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -39962,7 +39962,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -40005,7 +40005,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -40048,7 +40048,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -40134,7 +40134,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -40177,7 +40177,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -40220,7 +40220,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -40263,7 +40263,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -40306,7 +40306,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -40349,7 +40349,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -40392,7 +40392,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -40435,7 +40435,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -40478,7 +40478,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -40521,7 +40521,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -40564,7 +40564,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -40607,7 +40607,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -40650,7 +40650,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -40693,7 +40693,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -40736,7 +40736,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2025-07-21</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -40779,7 +40779,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -40822,7 +40822,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2025-07-19</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -40908,7 +40908,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -40994,7 +40994,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -41037,7 +41037,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -41080,7 +41080,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2025-07-14</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -41123,7 +41123,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -41166,7 +41166,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -41209,7 +41209,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2025-07-25</t>
+          <t>2025-07-28</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -41252,7 +41252,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -41295,7 +41295,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -41338,7 +41338,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -41381,7 +41381,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -41424,7 +41424,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -41467,7 +41467,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -41510,7 +41510,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2025-06-29</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -41553,7 +41553,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -41639,7 +41639,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -41682,7 +41682,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-28</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -41725,7 +41725,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -41768,7 +41768,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -41811,7 +41811,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -41854,7 +41854,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2025-07-07</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -41897,7 +41897,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -41940,7 +41940,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2025-07-04</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -41983,7 +41983,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -42026,7 +42026,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -42069,7 +42069,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -42112,7 +42112,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -42155,7 +42155,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -42198,7 +42198,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2025-07-08</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -42241,7 +42241,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -42284,7 +42284,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -42327,7 +42327,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2025-07-01</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -42370,7 +42370,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -42413,7 +42413,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -42456,7 +42456,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -42499,7 +42499,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-27</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -42542,7 +42542,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -42585,7 +42585,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -42628,7 +42628,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -42671,7 +42671,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2025-07-20</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -42714,7 +42714,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2025-07-16</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -42800,7 +42800,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2025-07-06</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -42843,7 +42843,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -42886,7 +42886,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -42929,7 +42929,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2025-07-03</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -42972,7 +42972,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2025-07-12</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -43015,7 +43015,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -43058,7 +43058,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -43101,7 +43101,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2025-07-09</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -43144,7 +43144,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -43187,7 +43187,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -43230,7 +43230,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -43273,7 +43273,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2025-07-05</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -43316,7 +43316,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-06-29</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -43359,7 +43359,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2025-06-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -43402,7 +43402,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-07-14</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -43445,7 +43445,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
